--- a/region.xlsx
+++ b/region.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\DB project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Project\DB Basic\Darnassus_Usher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,44 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>신전 정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사의 정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세나리온 자치령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피난처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가들에게 기술을 배울수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행과 텔드랏실 아래로 가는 포털이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인들에게 물건을 살 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다르나서스 입구가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울부짖는 참나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>상인의 정원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신전 정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사의 정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>달의 신전</t>
   </si>
   <si>
     <t>장인의 정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세나리온 자치령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울부짖는 참나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달의 신전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피난처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,47 +411,68 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
